--- a/chứng khoán.xlsx
+++ b/chứng khoán.xlsx
@@ -24,12 +24,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>giao dịch chứng khoán năm 2025</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>mã</t>
+  </si>
+  <si>
+    <t>SBS</t>
+  </si>
+  <si>
+    <t>ngày</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>VGT</t>
+  </si>
+  <si>
+    <t>tổng</t>
+  </si>
+  <si>
+    <t>31/07</t>
+  </si>
+  <si>
+    <t>VNE</t>
+  </si>
+  <si>
+    <t>13/08</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -43,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -51,14 +110,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,25 +497,240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C6"/>
+  <dimension ref="C2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3">
+        <f>SUM(F5:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f>SUM(G5:G20)</f>
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12">
+        <f>SUM(F21:G21)</f>
+        <v>2750000</v>
+      </c>
+      <c r="G22" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>